--- a/src/assets/BLF-Q3.xlsx
+++ b/src/assets/BLF-Q3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1618c472bf5a77c1/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{4C5BF28A-CC7D-4C43-A31C-79B327137FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E769445-DC2A-42FE-9020-63AE29A1D96C}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{4C5BF28A-CC7D-4C43-A31C-79B327137FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80EC1C55-530F-423D-94C5-27415B1E6196}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="178">
   <si>
     <t>Bank Account</t>
   </si>
@@ -571,6 +593,9 @@
   </si>
   <si>
     <t>VRFS-Landscaping &amp; ERT</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +1356,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1488,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +1511,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +1557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1787,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +1948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2316,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2339,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>6</v>
       </c>
@@ -2337,7 +2362,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2385,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>6</v>
       </c>
@@ -2383,7 +2408,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>6</v>
       </c>
@@ -2406,7 +2431,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +3006,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>6</v>
       </c>
@@ -3004,7 +3029,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3098,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>6</v>
       </c>
@@ -3165,7 +3190,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>6</v>
       </c>
@@ -3188,7 +3213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>6</v>
       </c>
@@ -3211,7 +3236,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>6</v>
       </c>
@@ -3234,7 +3259,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>6</v>
       </c>
@@ -3372,7 +3397,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>6</v>
       </c>
@@ -3395,7 +3420,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>6</v>
       </c>
@@ -3418,7 +3443,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>6</v>
       </c>
@@ -3487,7 +3512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>6</v>
       </c>
@@ -3510,7 +3535,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>6</v>
       </c>
@@ -3533,7 +3558,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>6</v>
       </c>
@@ -3786,7 +3811,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>6</v>
       </c>
@@ -4109,7 +4134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>6</v>
       </c>
@@ -4224,7 +4249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>6</v>
       </c>
@@ -4247,7 +4272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>6</v>
       </c>
@@ -4270,7 +4295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>6</v>
       </c>
@@ -4477,7 +4502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>6</v>
       </c>
@@ -4615,7 +4640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>6</v>
       </c>
@@ -5144,7 +5169,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>6</v>
       </c>
@@ -5190,7 +5215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>6</v>
       </c>
@@ -5420,7 +5445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
         <v>6</v>
       </c>
@@ -5512,7 +5537,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>6</v>
       </c>
@@ -6156,7 +6181,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
         <v>6</v>
       </c>
@@ -6409,7 +6434,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
         <v>6</v>
       </c>
@@ -6426,7 +6451,7 @@
         <v>7</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="G221" s="33" t="s">
         <v>164</v>
@@ -6478,7 +6503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>6</v>
       </c>
@@ -6570,7 +6595,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
         <v>6</v>
       </c>
@@ -6593,7 +6618,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
         <v>6</v>
       </c>
@@ -6685,7 +6710,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
         <v>6</v>
       </c>
@@ -6959,18 +6984,19 @@
       </c>
       <c r="G244" s="34" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F245" cm="1">
+        <f t="array" aca="1" ref="F245" ca="1">_xlfn.UNIQUE(F6:F245)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I244" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Ad-Hoc"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Estate Management"/>
+        <filter val="Capex"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6983,7 +7009,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7005,7 +7031,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="19">
-        <f>SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A2)</f>
+        <f ca="1">SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A2)</f>
         <v>6838796.8740000008</v>
       </c>
     </row>
@@ -7014,7 +7040,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="17">
-        <v>15000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7022,7 +7048,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="17">
-        <f>SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A4)</f>
+        <f ca="1">SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A4)</f>
         <v>3985808.45</v>
       </c>
     </row>
@@ -7031,7 +7057,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="17">
-        <f>SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A5)</f>
+        <f ca="1">SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A5)</f>
         <v>2026214.5499999998</v>
       </c>
     </row>
@@ -7040,7 +7066,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="17">
-        <f>SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A6)</f>
+        <f ca="1">SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A6)</f>
         <v>702874.85</v>
       </c>
     </row>
@@ -7049,7 +7075,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="17">
-        <f>SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A7)</f>
+        <f ca="1">SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A7)</f>
         <v>6774823.5</v>
       </c>
     </row>
@@ -7058,7 +7084,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="17">
-        <f>SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A8)</f>
+        <f ca="1">SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A8)</f>
         <v>2435722.56</v>
       </c>
     </row>
@@ -7067,8 +7093,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="17">
-        <f>SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A9)</f>
-        <v>3098387.4200000004</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,8 +7101,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="17">
-        <f>SUMIFS('Lead Sheet'!D:D,'Lead Sheet'!F:F,opex!A10)</f>
-        <v>318239.23999999993</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7085,7 +7109,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="20">
-        <v>98026761</v>
+        <v>23279241</v>
       </c>
     </row>
   </sheetData>
@@ -7095,10 +7119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7143,10 +7167,162 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B5" s="24">
-        <v>750000</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="24">
+        <v>75000</v>
       </c>
     </row>
   </sheetData>
